--- a/data/long_bre/P37-Edad-long_bre.xlsx
+++ b/data/long_bre/P37-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-9,17%</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>-1,47</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-6,92%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,26%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 10,86</t>
+          <t>-17,69; 11,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 17,12</t>
+          <t>-9,86; 16,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,41; 39,15</t>
+          <t>-13,42; 16,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 82,48</t>
+          <t>-23,54; 17,18</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-38,91; 40,82</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-26,99; 79,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-35,0; 93,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-50,08; 80,34</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>40,98%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-8,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-3,27%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 27,97</t>
+          <t>-1,59; 26,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 19,33</t>
+          <t>-8,01; 19,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 113,76</t>
+          <t>-19,8; 15,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 58,14</t>
+          <t>-22,94; 18,6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-5,13; 112,1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-16,68; 57,64</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,87; 46,95</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-47,99; 75,07</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,98</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,49</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-32,74%</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-34,93%</t>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-34,5%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-32,46%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,3%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,43; 1,6</t>
+          <t>-22,53; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 0,98</t>
+          <t>-20,52; 3,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-60,92; 8,37</t>
+          <t>-15,4; 16,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-60,14; 4,63</t>
+          <t>-16,44; 19,91</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-58,58; 15,94</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-56,97; 14,4</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-36,93; 89,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-41,82; 110,76</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,66%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 7,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 17,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 27,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 117,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,74</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,9%</t>
+          <t>8,59</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-11,13%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38,72%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 15,91</t>
+          <t>-22,24; 9,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 1,78</t>
+          <t>-1,93; 17,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 54,4</t>
+          <t>-10,57; 24,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-37,6; 4,0</t>
+          <t>-12,32; 24,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-48,88; 34,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 113,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 126,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-39,03; 224,9</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>-16,7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>-4,57</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-18,14%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-29,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-9,5%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 15,22</t>
+          <t>-12,51; 17,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 11,78</t>
+          <t>-25,14; 1,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,91; 82,74</t>
+          <t>-36,0; 0,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,9; 65,78</t>
+          <t>-26,91; 19,64</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-26,33; 60,5</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; 3,01</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-52,1; 1,15</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-41,99; 63,9</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7,05%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>55,6%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-12,9%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 18,69</t>
+          <t>-14,29; 13,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 10,65</t>
+          <t>-9,57; 12,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,43; 122,82</t>
+          <t>-2,35; 19,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 50,75</t>
+          <t>-35,45; 16,92</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-39,17; 70,12</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-30,96; 72,56</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 193,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-65,76; 135,53</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 6,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 24,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 15,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-8,01</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>13,74</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>55,79%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64,01%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 0,42</t>
+          <t>2,99; 19,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 6,87</t>
+          <t>-7,08; 11,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 2,63</t>
+          <t>-8,98; 11,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 36,11</t>
+          <t>0,74; 25,79</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10,28; 132,65</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 53,72</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-26,59; 58,01</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 161,97</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>-14,37</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-4,1%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,09%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-5,4%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-29,95%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 8,96</t>
+          <t>-12,9; 10,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 12,86</t>
+          <t>-11,45; 6,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 39,79</t>
+          <t>-13,93; 7,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 66,03</t>
+          <t>-29,06; 0,05</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-22,35; 25,92</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-20,86; 15,76</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,03; 17,82</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-52,37; 0,06</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-17,29%</t>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-28,45%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 11,89</t>
+          <t>-21,5; 0,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-18,86; -0,51</t>
+          <t>-8,45; 7,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 28,43</t>
+          <t>-9,44; 8,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-31,52; -1,05</t>
+          <t>-12,61; 13,86</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-53,32; 3,52</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-28,72; 37,24</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-33,0; 43,66</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 59,25</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,27%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 5,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 11,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,52; 31,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 63,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-8,04%</t>
+          <t>-8,77</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-1,98%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-12,23%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-24,76%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 20,27</t>
+          <t>-9,73; 8,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 5,63</t>
+          <t>-2,09; 13,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 103,64</t>
+          <t>-18,3; 5,88</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 21,86</t>
+          <t>-23,28; 4,72</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-28,8; 36,86</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-7,7; 66,16</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-48,38; 28,74</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-53,74; 18,93</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-8,09</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>9,44</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>8,44</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-15,37%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 12,69</t>
+          <t>-8,7; 11,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 1,52</t>
+          <t>-17,31; 1,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 33,65</t>
+          <t>-0,4; 21,27</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 3,44</t>
+          <t>-5,65; 23,12</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-16,48; 27,6</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-30,29; 2,55</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-0,23; 61,5</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-11,53; 66,2</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-8,2</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-26,23%</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>57,22%</t>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-20,46%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 1,65</t>
+          <t>-12,32; 7,52</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,47; 18,52</t>
+          <t>-4,6; 10,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-54,88; 7,03</t>
+          <t>-15,3; 3,44</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>10,13; 127,58</t>
+          <t>-10,47; 11,97</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-40,27; 39,38</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 58,63</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-44,42; 14,73</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-39,04; 75,7</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-9,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-21,71%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 5,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 9,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 16,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 44,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-13,01</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-31,85%</t>
+          <t>11,26</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>47,97%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-2,4%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-27,02; 2,19</t>
+          <t>-4,35; 15,79</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 7,73</t>
+          <t>-10,66; 6,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-54,28; 6,84</t>
+          <t>-0,55; 22,81</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 22,79</t>
+          <t>-13,64; 12,19</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 78,05</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-32,01; 23,75</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-4,2; 119,27</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-38,19; 62,66</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>22,58</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>149,7%</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-14,73%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-20,17%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>11,52; 33,28</t>
+          <t>-8,72; 14,82</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 15,64</t>
+          <t>-18,02; 2,08</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>53,8; 323,99</t>
+          <t>-23,43; 3,76</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 64,24</t>
+          <t>-13,04; 14,99</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-17,27; 40,23</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-32,27; 4,39</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-42,71; 9,43</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-23,92; 41,0</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>9,89</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-25,88%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>53,09%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-1,03%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 5,02</t>
+          <t>-19,36; 1,51</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 7,04</t>
+          <t>1,53; 17,86</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 17,94</t>
+          <t>-13,8; 11,99</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 29,58</t>
+          <t>-12,5; 12,2</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-51,08; 7,51</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>7,58; 116,31</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-41,17; 48,75</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-39,63; 71,14</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 5,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-9,38; -0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 13,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-17,98; -0,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>10,29</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-19,85%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>-4,8%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-11,62%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>41,4%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 4,36</t>
+          <t>-23,74; 4,73</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,93</t>
+          <t>-12,67; 8,31</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 18,85</t>
+          <t>-18,4; 9,67</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 26,32</t>
+          <t>-8,23; 30,73</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-46,12; 14,03</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-36,77; 39,02</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-47,63; 42,48</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-26,38; 158,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-12,49</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-6,08</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-30,45%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-8,46%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-9,73%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-14,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-25,39; -0,01</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-14,58; 7,16</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-21,72; 9,96</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-24,63; 13,51</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-52,45; -0,03</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-30,43; 20,71</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-39,78; 28,61</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-49,48; 42,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>20,97</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>4,84</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>8,07</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>128,85%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>15,8%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>35,16%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>-12,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 32,05</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 14,98</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 21,63</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-20,82; 13,75</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>43,18; 281,13</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-15,69; 59,94</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-21,47; 131,61</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-53,64; 56,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 5,97</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 6,76</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 7,54</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 10,62</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 21,31</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 28,33</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 30,76</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 44,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-4,33</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-9,32%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-9,06%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-7,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 5,77</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 0,39</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 1,27</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 4,15</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 14,25</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-17,45; 0,7</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-20,89; 3,01</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-21,94; 10,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>8,08%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 4,61</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 5,65</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 7,11</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 5,65</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-18,79; 19,57</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 25,26</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 32,25</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 22,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P37-Edad-long_bre.xlsx
+++ b/data/long_bre/P37-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -816,7 +816,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1012,7 +1012,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1108,7 +1108,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1304,7 +1304,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1400,7 +1400,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1596,7 +1596,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1692,7 +1692,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1888,7 +1888,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1984,7 +1984,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2180,7 +2180,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2276,7 +2276,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2472,7 +2472,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2568,7 +2568,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
